--- a/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12</t>
+    <t>2025-04-11</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-medicationrequest.xlsx
@@ -3847,7 +3847,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>165</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>175</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>195</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>230</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>240</v>
       </c>
@@ -5358,7 +5358,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>274</v>
       </c>
@@ -12358,12 +12358,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO86">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
